--- a/Analyzed/raw/data_2013.xlsx
+++ b/Analyzed/raw/data_2013.xlsx
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -546,13 +546,13 @@
         <v>6</v>
       </c>
       <c r="V2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W2">
         <v>4</v>
       </c>
       <c r="X2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -622,13 +622,13 @@
         <v>2</v>
       </c>
       <c r="V3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W3">
         <v>3</v>
       </c>
       <c r="X3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -686,13 +686,13 @@
         <v>2</v>
       </c>
       <c r="R4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U4">
         <v>6</v>
@@ -704,13 +704,13 @@
         <v>4</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>넥센 히어로즈</t>
+          <t>키움 히어로즈</t>
         </is>
       </c>
       <c r="B5">
@@ -734,29 +734,53 @@
       <c r="H5">
         <v>0.571</v>
       </c>
+      <c r="I5">
+        <v>46.67</v>
+      </c>
+      <c r="J5">
+        <v>2361</v>
+      </c>
+      <c r="K5">
+        <v>1661.549</v>
+      </c>
+      <c r="L5">
+        <v>649</v>
+      </c>
+      <c r="M5">
+        <v>58.22344060801355</v>
+      </c>
+      <c r="N5">
+        <v>656.5</v>
+      </c>
+      <c r="O5">
+        <v>814.37</v>
+      </c>
+      <c r="P5">
+        <v>2843.8</v>
+      </c>
       <c r="Q5">
         <v>3</v>
       </c>
       <c r="R5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <v>6</v>
       </c>
       <c r="V5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="W5">
         <v>6</v>
       </c>
       <c r="X5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -814,25 +838,25 @@
         <v>5</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6">
         <v>2</v>
       </c>
       <c r="V6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <v>2</v>
       </c>
       <c r="X6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -890,25 +914,25 @@
         <v>6</v>
       </c>
       <c r="R7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U7">
         <v>4</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W7">
         <v>2</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -966,25 +990,25 @@
         <v>7</v>
       </c>
       <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
         <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>2</v>
-      </c>
-      <c r="V8">
-        <v>1</v>
       </c>
       <c r="W8">
         <v>4</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1042,25 +1066,25 @@
         <v>8</v>
       </c>
       <c r="R9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U9">
         <v>4</v>
       </c>
       <c r="V9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W9">
         <v>6</v>
       </c>
       <c r="X9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1118,25 +1142,25 @@
         <v>9</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <v>8</v>
       </c>
       <c r="V10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W10">
         <v>5</v>
       </c>
       <c r="X10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
